--- a/Data/EC/NIT-9003666660.xlsx
+++ b/Data/EC/NIT-9003666660.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67B83B2-C416-44A3-891D-7787B16D0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA1DFDE9-9C8D-4B97-96E9-EC71D3C543F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{675864BA-323E-41FE-91D5-6944B4E3E65D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{513B6C28-9F1D-4C11-B961-B1647A006AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="115">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,280 +71,283 @@
     <t>KEVIN DAVID TORRES MORENO</t>
   </si>
   <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1128051408</t>
+  </si>
+  <si>
+    <t>JORGE ALONSO PENSO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1128051408</t>
-  </si>
-  <si>
-    <t>JORGE ALONSO PENSO MARTINEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -388,7 +391,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,7 +446,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -456,9 +461,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -658,23 +661,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,10 +705,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,7 +761,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D18B94-2770-4654-17AE-D2BAD67DC0E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823DA6A4-B379-A506-DA06-3AC3C664E2F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,32 +1112,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C27F159-5B3E-45A8-B0C1-2BA415886FD1}">
-  <dimension ref="B2:J112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3656C8B-5B1C-416A-BF19-E50BBCEDF3B4}">
+  <dimension ref="B2:J113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1143,7 +1146,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1154,7 +1157,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1165,7 +1168,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1176,10 +1179,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1192,8 +1195,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1208,15 +1211,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2806336</v>
+        <v>2837585</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1224,27 +1227,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1264,16 +1267,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1296,30 +1299,30 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>7467</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1342,7 +1345,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1365,7 +1368,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1388,7 +1391,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1411,7 +1414,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1434,7 +1437,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1457,7 +1460,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1480,7 +1483,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1503,7 +1506,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1526,7 +1529,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1549,7 +1552,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1572,7 +1575,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1595,7 +1598,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1618,7 +1621,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1641,7 +1644,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1664,7 +1667,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1687,7 +1690,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1710,7 +1713,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1733,7 +1736,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1756,7 +1759,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1779,7 +1782,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1802,7 +1805,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1825,7 +1828,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1848,7 +1851,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1871,7 +1874,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1894,7 +1897,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1917,7 +1920,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1940,7 +1943,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1963,7 +1966,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1986,7 +1989,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2009,7 +2012,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2032,7 +2035,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2055,7 +2058,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2078,7 +2081,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2101,7 +2104,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2124,7 +2127,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2147,7 +2150,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2170,7 +2173,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2193,7 +2196,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2216,7 +2219,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2239,7 +2242,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2262,7 +2265,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2285,7 +2288,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2308,7 +2311,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2331,7 +2334,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2354,7 +2357,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2377,7 +2380,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2400,7 +2403,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2423,7 +2426,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2446,7 +2449,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2469,7 +2472,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2492,7 +2495,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2515,7 +2518,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2538,7 +2541,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2561,7 +2564,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2584,7 +2587,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2607,7 +2610,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2630,7 +2633,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2653,7 +2656,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2676,7 +2679,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2699,7 +2702,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2722,7 +2725,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2745,7 +2748,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2768,7 +2771,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2791,7 +2794,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2814,7 +2817,7 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2837,7 +2840,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2860,7 +2863,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2883,7 +2886,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2906,7 +2909,7 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2929,7 +2932,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2952,7 +2955,7 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2975,7 +2978,7 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2998,7 +3001,7 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3021,7 +3024,7 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3044,7 +3047,7 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3067,7 +3070,7 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3090,7 +3093,7 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3113,7 +3116,7 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3136,7 +3139,7 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3159,7 +3162,7 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3182,7 +3185,7 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3205,7 +3208,7 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3228,7 +3231,7 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3251,7 +3254,7 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3274,7 +3277,7 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3297,7 +3300,7 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3320,7 +3323,7 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
@@ -3331,10 +3334,10 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F105" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3343,43 +3346,55 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D106" s="23" t="s">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E106" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F106" s="24">
-        <v>7467</v>
-      </c>
-      <c r="G106" s="24">
-        <v>800000</v>
-      </c>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="26"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="H111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="2:10">
+      <c r="F106" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G106" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F107" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="26"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C112" s="32"/>
       <c r="H112" s="1" t="s">
@@ -3388,12 +3403,23 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="H113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B113:C113"/>
     <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="H113:J113"/>
     <mergeCell ref="H112:J112"/>
-    <mergeCell ref="H111:J111"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
